--- a/biology/Zoologie/Bipalium/Bipalium.xlsx
+++ b/biology/Zoologie/Bipalium/Bipalium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bipalium est un genre de vers plats terrestres de la famille des Geoplanidae. Ce sont souvent des espèces envahissantes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bipalium est un genre de vers plats terrestres de la famille des Geoplanidae. Ce sont souvent des espèces envahissantes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Bipalium vient du Latin bi-, "deux" + pala, "pelle". Ce nom provient de la forme de la tête des espèces de ce genre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Bipalium vient du Latin bi-, "deux" + pala, "pelle". Ce nom provient de la forme de la tête des espèces de ce genre.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des vers terrestres ayant une tête en forme de marteau, de rein ou de demi-lune, cette tête large ayant de nombreux yeux[3]. Bipalium est distingué des autres genres de Bipaliinae par des organes copulatoires simples, sans canaux accessoires ni bourse copulatoire, et avec un pli de tissu séparant les canaux de sortie mâles et femelles[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des vers terrestres ayant une tête en forme de marteau, de rein ou de demi-lune, cette tête large ayant de nombreux yeux. Bipalium est distingué des autres genres de Bipaliinae par des organes copulatoires simples, sans canaux accessoires ni bourse copulatoire, et avec un pli de tissu séparant les canaux de sortie mâles et femelles,.
 Voici une représentation des têtes de quelques Bipalium invasifs.
-Une espèce, Bipalium nobile atteint 1 m de long[6].
+Une espèce, Bipalium nobile atteint 1 m de long.
 </t>
         </is>
       </c>
@@ -577,10 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Invasivité
-Plusieurs espèces de Bipalium sont envahissantes. Parmi ces espèces introduites hors de leur milieu d'origine, Bipalium kewense est particulièrement invasive.
-Alimentation
-Les Bipalium se nourrissent  de vers de terre et de mollusques. Ils tuent leur proies à l'aide de poison, en particulier en générant de la tétrodotoxine, un neurotoxique très puissant[7].
+          <t>Invasivité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces de Bipalium sont envahissantes. Parmi ces espèces introduites hors de leur milieu d'origine, Bipalium kewense est particulièrement invasive.
 </t>
         </is>
       </c>
@@ -606,13 +625,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat et répartition</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les Bipalium sont d'origine asiatique. Leur invasivité les fait retrouver dans le monde entier.
-Ces plathelminthes terrestres craignant le froid en hiver et la sécheresse en été, la plupart des signalements de Bipalium kewense en France métropolitaine proviennent du département des Pyrénées-Atlantiques, où le climat leur est favorable [8].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bipalium se nourrissent  de vers de terre et de mollusques. Ils tuent leur proies à l'aide de poison, en particulier en générant de la tétrodotoxine, un neurotoxique très puissant.
 </t>
         </is>
       </c>
@@ -638,21 +662,126 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bipalium sont d'origine asiatique. Leur invasivité les fait retrouver dans le monde entier.
+Ces plathelminthes terrestres craignant le froid en hiver et la sécheresse en été, la plupart des signalements de Bipalium kewense en France métropolitaine proviennent du département des Pyrénées-Atlantiques, où le climat leur est favorable .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bipalium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bipalium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Bipalium Stimpson, 1857[9].
-Synonymes de Bipalium
-Bipalium a pour synonymes[9] les genres suivants :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Bipalium Stimpson, 1857.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bipalium</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bipalium</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymes de Bipalium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bipalium a pour synonymes les genres suivants :
 Dunlopea Wright, 1860
 Perocephalus Graff, 1896
 Placocephalus Graff, 1896
 Sphaerocephalus Loman, 1888
-Sphyrocephalus Bleeker, 1844
-Liste des espèces
-Selon la base de données World Register of Marine Species                               (16 janvier 2024)[9], le genre Bipalium contient les espèces valides suivantes :
+Sphyrocephalus Bleeker, 1844</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bipalium</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bipalium</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (16 janvier 2024), le genre Bipalium contient les espèces valides suivantes :
 Bipalium adensameri Graff, 1899
 Bipalium admarginatum de Beauchamp, 1933
 Bipalium adventitium Hyman, 1943
@@ -714,9 +843,43 @@
 Bipalium vagum Jones &amp; Sterrer, 2005
 Bipalium virile Müller, 1902
 Bipalium weismanni Ritter-Zahony, 1905
-Bipalium wiesneri Graff, 1899
-Liste des synonymes et espèces non acceptées
-D'après World Register of Marine Species                               (16 janvier 2024)[9], les espèces suivantes sont synonymes ou invalides :
+Bipalium wiesneri Graff, 1899</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bipalium</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bipalium</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liste des synonymes et espèces non acceptées</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>D'après World Register of Marine Species                               (16 janvier 2024), les espèces suivantes sont synonymes ou invalides :
 Bipalium andrewsi Whitehouse, 1919 est synonyme de Diversibipalium andrewsi (Whitehouse, 1919)
 Bipalium bleekeri Graff, 1898 est synonyme de Diversibipalium bleekeri (Graff, 1898)
 Bipalium bohmigi Müller, 1902 est synonyme de Diversibipalium boehmigi (Müller, 1902)
